--- a/Assets/Resources/Configs/Item/Items.xlsx
+++ b/Assets/Resources/Configs/Item/Items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMMIU\Perforce\yifeimia_pc_18435\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMMIU\Perforce\yifeimia_Miao-PC_2024\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2040BCEF-8B4F-4C27-AD66-DE7AFC28229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED95EF1-2BCB-405E-9D4B-FB950A3324E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2810" yWindow="4800" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-3825" windowWidth="21840" windowHeight="37920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>item_uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,21 @@
   <si>
     <t>Spider web</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>key_1</t>
+  </si>
+  <si>
+    <t>First Key</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -466,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -643,6 +658,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Configs/Item/Items.xlsx
+++ b/Assets/Resources/Configs/Item/Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMMIU\Perforce\yifeimia_Miao-PC_2024\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\yifeimia_razer_532\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED95EF1-2BCB-405E-9D4B-FB950A3324E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D78406B-B6D7-486E-934A-753C77501EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-3825" windowWidth="21840" windowHeight="37920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25690" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>item_uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,34 +87,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gate_left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The left half of the gate</t>
-  </si>
-  <si>
-    <t>gate_right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The right half of the gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>princess</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>knight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>both</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -481,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -537,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -548,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -560,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -571,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -583,7 +560,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -591,22 +568,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -614,71 +591,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Item/Items.xlsx
+++ b/Assets/Resources/Configs/Item/Items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\yifeimia_razer_532\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMMIU\Perforce\yifeimia_Miao-PC_2024\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D78406B-B6D7-486E-934A-753C77501EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70675FBB-45FE-4B9C-AF07-2886FF556080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25690" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>item_uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pedal_switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spider_web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,6 +120,88 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>pedal_maze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pedal switch in maze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maze_gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maze gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maze_eye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top down cam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_button</t>
+  </si>
+  <si>
+    <t>maze_fence</t>
+  </si>
+  <si>
+    <t>maze_fence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maze_eye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanoi_control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -458,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -525,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -548,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -571,16 +649,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -594,22 +672,298 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Item/Items.xlsx
+++ b/Assets/Resources/Configs/Item/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMMIU\Perforce\yifeimia_Miao-PC_2024\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70675FBB-45FE-4B9C-AF07-2886FF556080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD93DCB-51FC-4BD3-B435-03A6DA13AF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>item_uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,30 +177,21 @@
     <t>switch_button</t>
   </si>
   <si>
-    <t>maze_fence</t>
-  </si>
-  <si>
-    <t>maze_fence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>both</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maze_eye</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hanoi_control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object of this level is to move all the disks over to the right-most Tower.
+But you cannot place a larger disk onto a smaller disk.
+Press and hold the right mouse button to enter the disk selection mode.
+Release the right mouse button to select the disk at the screen's center crosshair. 
+Move the disk to the target tower and click the right mouse button again to place it down. 
+Use the mouse wheel to adjust the distance of the disk.
+Complete the level within the time and move limit.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,9 +244,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,7 +533,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -547,7 +541,7 @@
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="39.75" customWidth="1"/>
     <col min="6" max="6" width="11.9140625" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
   </cols>
@@ -741,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -764,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -787,7 +781,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -810,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -833,7 +827,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -856,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -879,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -925,39 +919,39 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="280" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>

--- a/Assets/Resources/Configs/Item/Items.xlsx
+++ b/Assets/Resources/Configs/Item/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMMIU\Perforce\yifeimia_Miao-PC_2024\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD93DCB-51FC-4BD3-B435-03A6DA13AF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FEA55F-2F08-4602-91E5-A80F2D454BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,13 +185,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Object of this level is to move all the disks over to the right-most Tower.
-But you cannot place a larger disk onto a smaller disk.
-Press and hold the right mouse button to enter the disk selection mode.
-Release the right mouse button to select the disk at the screen's center crosshair. 
-Move the disk to the target tower and click the right mouse button again to place it down. 
-Use the mouse wheel to adjust the distance of the disk.
-Complete the level within the time and move limit.</t>
+    <t>Move all disks to the rightmost tower without placing larger disks on smaller ones. 
+Press and hold, then release the right mouse button to select a disk at the center crosshair. Click again to drop it. Adjust disk distance with the mouse wheel. 
+Complete within time and move limits.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +529,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -937,7 +933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="280" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="126" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19</v>
       </c>

--- a/Assets/Resources/Configs/Item/Items.xlsx
+++ b/Assets/Resources/Configs/Item/Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMMIU\Perforce\yifeimia_Miao-PC_2024\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18221\Perforce\yifeimia_532PC_02\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FEA55F-2F08-4602-91E5-A80F2D454BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EE44C9-0AA5-413C-B37F-D9728C537DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17388" yWindow="-108" windowWidth="17496" windowHeight="30216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
   <si>
     <t>item_uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A magic book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +123,6 @@
   </si>
   <si>
     <t>Pedal switch in maze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>both</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,6 +181,41 @@
 Press and hold, then release the right mouse button to select a disk at the center crosshair. Click again to drop it. Adjust disk distance with the mouse wheel. 
 Complete within time and move limits.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well done, warriors, you are nearing victory. 
+Now, the knight's mission to protect the princess is complete, and he may leave the dungeon via the stairs on the left to gain his freedom. Meanwhile, the princess can descend the stairs on the right to claim her reward!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome, brave warriors.
+It may have come to your attention that certain mechanisms within this dungeon, this book included, require the unique magic that you, the princess, possess for operation. Therefore, it is imperative that you relay this message to your knight:
+Your mission is straightforward: escape from this dungeon.
+Beyond these walls lies not the glimmer of gold or silver treasures, but the promise of freedom. You are to confront three challenges, each demanding cooperation to surmount. Knight, it is your duty to safeguard the princess; princess, your intellect is the key to unraveling the mysteries. Bear in mind, unity is our greatest strength.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watch out, a patrolling guard can teleport you back if attacked. However, if the knight hits it, the guard also gets teleported.
+Whenever the princess uses thecontrol panel, she gains an aerial view. She needs to find the way out within a limited time and create a path by moving the fences inside the maze.
+Hint: Pay attention to the boxes in the maze.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedal_maze</t>
+  </si>
+  <si>
+    <t>Pedal switch in maze</t>
+  </si>
+  <si>
+    <t>princess</t>
   </si>
 </sst>
 </file>
@@ -526,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -562,10 +589,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="280" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -578,14 +605,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -593,22 +620,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -616,22 +643,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -639,22 +666,22 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -662,22 +689,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -685,22 +712,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -708,22 +735,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -731,22 +758,22 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -754,22 +781,22 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -777,22 +804,22 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -800,22 +827,22 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -823,22 +850,22 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -846,22 +873,22 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -869,22 +896,22 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -892,22 +919,22 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -915,22 +942,22 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="126" x14ac:dyDescent="0.3">
@@ -938,22 +965,91 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="98" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="140" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Item/Items.xlsx
+++ b/Assets/Resources/Configs/Item/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18221\Perforce\yifeimia_532PC_02\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EE44C9-0AA5-413C-B37F-D9728C537DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201FDE58-DA28-4151-81E9-5FD2BE612F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17388" yWindow="-108" windowWidth="17496" windowHeight="30216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,19 +203,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Watch out, a patrolling guard can teleport you back if attacked. However, if the knight hits it, the guard also gets teleported.
+    <t>pedal_maze</t>
+  </si>
+  <si>
+    <t>Pedal switch in maze</t>
+  </si>
+  <si>
+    <t>princess</t>
+  </si>
+  <si>
+    <t>Watch out, a patrolling guard can teleport you back if attacked. However, if the knight hits it, the guard also gets teleported. So, please move together, do not separate.
 Whenever the princess uses thecontrol panel, she gains an aerial view. She needs to find the way out within a limited time and create a path by moving the fences inside the maze.
-Hint: Pay attention to the boxes in the maze.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pedal_maze</t>
-  </si>
-  <si>
-    <t>Pedal switch in maze</t>
-  </si>
-  <si>
-    <t>princess</t>
+Pay attention to the boxes in the maze. Also please note that when the fence moves horizontally, it's unstoppable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1006,7 +1006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="140" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="182" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -1040,13 +1040,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
         <v>45</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>46</v>
-      </c>
-      <c r="F21" t="s">
-        <v>47</v>
       </c>
       <c r="G21" t="s">
         <v>23</v>

--- a/Assets/Resources/Configs/Item/Items.xlsx
+++ b/Assets/Resources/Configs/Item/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18221\Perforce\yifeimia_532PC_02\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201FDE58-DA28-4151-81E9-5FD2BE612F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1DC140-E6F3-4777-A56F-4831A5F88CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17388" yWindow="-108" windowWidth="17496" windowHeight="30216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,44 +177,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>book_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedal_maze</t>
+  </si>
+  <si>
+    <t>Pedal switch in maze</t>
+  </si>
+  <si>
+    <t>princess</t>
+  </si>
+  <si>
+    <t>Watch out, a patrolling guard can teleport you back if attacked. However, if the knight hits it, the guard also gets teleported. So, please move together, do not separate.
+Whenever the princess uses thecontrol panel, she gains an aerial view. She needs to find the way out within a limited time and create a path by moving the fences inside the maze.
+Pay attention to the boxes in the maze. Use the waypoints to guide your partner.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Move all disks to the rightmost tower without placing larger disks on smaller ones. 
-Press and hold, then release the right mouse button to select a disk at the center crosshair. Click again to drop it. Adjust disk distance with the mouse wheel. 
+Press and hold, then release the right mouse button to select a disk at the center crosshair. Click again to drop it. Adjust disk distance with the mouse scrollwheel. 
 Complete within time and move limits.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>book_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Well done, warriors, you are nearing victory. 
-Now, the knight's mission to protect the princess is complete, and he may leave the dungeon via the stairs on the left to gain his freedom. Meanwhile, the princess can descend the stairs on the right to claim her reward!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>book_3</t>
+Now, the knight's mission to protect the princess is complete, and he may leave the dungeon via the stairs on the left to gain his reward.
+Meanwhile, the princess can descend the stairs on the right to claim her reward!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Welcome, brave warriors.
-It may have come to your attention that certain mechanisms within this dungeon, this book included, require the unique magic that you, the princess, possess for operation. Therefore, it is imperative that you relay this message to your knight:
+It may have come to your attention that most mechanisms within this dungeon, all guide books included, require the unique magic that you, the princess, possess for operation. Therefore, it is imperative that you relay messages to your knight:
 Your mission is straightforward: escape from this dungeon.
 Beyond these walls lies not the glimmer of gold or silver treasures, but the promise of freedom. You are to confront three challenges, each demanding cooperation to surmount. Knight, it is your duty to safeguard the princess; princess, your intellect is the key to unraveling the mysteries. Bear in mind, unity is our greatest strength.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pedal_maze</t>
-  </si>
-  <si>
-    <t>Pedal switch in maze</t>
-  </si>
-  <si>
-    <t>princess</t>
-  </si>
-  <si>
-    <t>Watch out, a patrolling guard can teleport you back if attacked. However, if the knight hits it, the guard also gets teleported. So, please move together, do not separate.
-Whenever the princess uses thecontrol panel, she gains an aerial view. She needs to find the way out within a limited time and create a path by moving the fences inside the maze.
-Pay attention to the boxes in the maze. Also please note that when the fence moves horizontally, it's unstoppable.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -606,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -974,7 +975,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -983,7 +984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="98" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="112" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
@@ -994,10 +995,10 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1006,7 +1007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="182" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="168" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1017,10 +1018,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -1040,13 +1041,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
         <v>23</v>

--- a/Assets/Resources/Configs/Item/Items.xlsx
+++ b/Assets/Resources/Configs/Item/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18221\Perforce\yifeimia_532PC_02\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1DC140-E6F3-4777-A56F-4831A5F88CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E691A0D5-6E00-41E7-A51E-DCE0E9FF518A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,12 +194,6 @@
     <t>princess</t>
   </si>
   <si>
-    <t>Watch out, a patrolling guard can teleport you back if attacked. However, if the knight hits it, the guard also gets teleported. So, please move together, do not separate.
-Whenever the princess uses thecontrol panel, she gains an aerial view. She needs to find the way out within a limited time and create a path by moving the fences inside the maze.
-Pay attention to the boxes in the maze. Use the waypoints to guide your partner.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Move all disks to the rightmost tower without placing larger disks on smaller ones. 
 Press and hold, then release the right mouse button to select a disk at the center crosshair. Click again to drop it. Adjust disk distance with the mouse scrollwheel. 
 Complete within time and move limits.</t>
@@ -216,6 +210,12 @@
 It may have come to your attention that most mechanisms within this dungeon, all guide books included, require the unique magic that you, the princess, possess for operation. Therefore, it is imperative that you relay messages to your knight:
 Your mission is straightforward: escape from this dungeon.
 Beyond these walls lies not the glimmer of gold or silver treasures, but the promise of freedom. You are to confront three challenges, each demanding cooperation to surmount. Knight, it is your duty to safeguard the princess; princess, your intellect is the key to unraveling the mysteries. Bear in mind, unity is our greatest strength.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watch out, a patrolling guard can teleport you back if attacked. However, if the knight hits it, the guard also gets teleported. So, please move together, do not separate.
+Whenever the princess uses the control panel, she gains an aerial view. She needs to find the way out within a limited time and create a path by moving the fences inside the maze.
+Pay attention to the boxes in the maze. Use the waypoints to guide your partner.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +557,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -607,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -975,7 +975,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -998,7 +998,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1021,7 +1021,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>

--- a/Assets/Resources/Configs/Item/Items.xlsx
+++ b/Assets/Resources/Configs/Item/Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18221\Perforce\yifeimia_532PC_02\_The_Project\Qingzhi_Yifei\CTIN_532_Project\Assets\Resources\Configs\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E691A0D5-6E00-41E7-A51E-DCE0E9FF518A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFE990F-0D54-4BDE-AA61-7A212A868427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,6 +215,7 @@
   <si>
     <t>Watch out, a patrolling guard can teleport you back if attacked. However, if the knight hits it, the guard also gets teleported. So, please move together, do not separate.
 Whenever the princess uses the control panel, she gains an aerial view. She needs to find the way out within a limited time and create a path by moving the fences inside the maze.
+To lift the fence, the princess needs to press and hold the left mouse button on the fence.
 Pay attention to the boxes in the maze. Use the waypoints to guide your partner.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,7 +558,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="168" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="210" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
